--- a/dog_treats_data.xlsx
+++ b/dog_treats_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stlawrencecollege-my.sharepoint.com/personal/fabian_baez_sl_on_ca/Documents/Operational Analytics 2 2024 Fall/Python_modules/github/control_chart/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stlawrencecollege-my.sharepoint.com/personal/fabian_baez_sl_on_ca/Documents/Operational Analytics 2 2025 Winter/Python_modules/SA/winter25_control_charts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="26" documentId="8_{3748BE5D-1B89-4049-BF1D-18CC39ADEFD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A8C84AD0-9C52-4237-8448-D6B8EC5DBD55}"/>
+  <xr:revisionPtr revIDLastSave="37" documentId="8_{3748BE5D-1B89-4049-BF1D-18CC39ADEFD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{37BE6F79-DF73-437C-9000-BA6A3E8FA8EA}"/>
   <bookViews>
     <workbookView xWindow="6840" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{1133878F-432B-4293-8EC6-2704560C0B1A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>sample_no</t>
   </si>
@@ -55,15 +55,27 @@
   <si>
     <t>x5</t>
   </si>
+  <si>
+    <t>x6</t>
+  </si>
+  <si>
+    <t>x7</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -257,7 +269,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -270,9 +282,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -587,15 +600,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F5B9387-B704-47FB-A7C0-A7839C7F79D1}">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="62" workbookViewId="0">
-      <selection sqref="A1:F25"/>
+    <sheetView tabSelected="1" zoomScale="180" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="11.46484375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -614,8 +630,16 @@
       <c r="F1" s="12" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G1" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="13"/>
+      <c r="J1" s="12"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -634,8 +658,14 @@
       <c r="F2" s="8">
         <v>224</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G2">
+        <v>32</v>
+      </c>
+      <c r="H2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -655,7 +685,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -675,7 +705,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -695,7 +725,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -715,7 +745,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -735,7 +765,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -755,7 +785,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -775,7 +805,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -795,7 +825,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -815,7 +845,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A12" s="5">
         <v>12</v>
       </c>
@@ -835,7 +865,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A13" s="5">
         <v>13</v>
       </c>
@@ -855,7 +885,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A14" s="5">
         <v>14</v>
       </c>
@@ -875,7 +905,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A15" s="5">
         <v>15</v>
       </c>
@@ -895,7 +925,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A16" s="5">
         <v>16</v>
       </c>
@@ -1096,6 +1126,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>